--- a/riscv-ens.xlsx
+++ b/riscv-ens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3AF499-DD30-4CCF-9BCF-4F928259D775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC2ADE-D1C4-4515-8C4A-3E51A0A115CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="251">
   <si>
     <t>x0</t>
   </si>
@@ -648,15 +648,9 @@
     <t>jump</t>
   </si>
   <si>
-    <t>push(x8)</t>
-  </si>
-  <si>
     <t>or x8, x2, x2</t>
   </si>
   <si>
-    <t>push(x1)  # crear marco de pila</t>
-  </si>
-  <si>
     <t>addi x28, x0, -1</t>
   </si>
   <si>
@@ -672,24 +666,12 @@
     <t>sw x28, -8(x8)  # salvaguarda de registros</t>
   </si>
   <si>
-    <t>push(x6)  # to</t>
-  </si>
-  <si>
-    <t>push(x28)  # from</t>
-  </si>
-  <si>
-    <t>push(x5)  # ref</t>
-  </si>
-  <si>
     <t>add x5, x5, x6</t>
   </si>
   <si>
     <t>lbu x5, 0(x5)</t>
   </si>
   <si>
-    <t>push(x5)  # C</t>
-  </si>
-  <si>
     <t>jal x1, BuscaCar</t>
   </si>
   <si>
@@ -738,12 +720,6 @@
     <t>or x2, x8, x8</t>
   </si>
   <si>
-    <t>pop(x8)</t>
-  </si>
-  <si>
-    <t>pop(x1)</t>
-  </si>
-  <si>
     <t>lw x5, 0(x2)  # x5 &lt;- carácter</t>
   </si>
   <si>
@@ -769,6 +745,51 @@
   </si>
   <si>
     <t>sw reg, 0(x2)</t>
+  </si>
+  <si>
+    <t>Macros</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Instrucciones Equivalentes</t>
+  </si>
+  <si>
+    <t>lw reg, 0(x2)</t>
+  </si>
+  <si>
+    <t>PUSH(reg)</t>
+  </si>
+  <si>
+    <t>POP(reg)</t>
+  </si>
+  <si>
+    <t>addi x2, x2, 4</t>
+  </si>
+  <si>
+    <t>PUSH(x1)  # crear marco de pila</t>
+  </si>
+  <si>
+    <t>PUSH(x8)</t>
+  </si>
+  <si>
+    <t>PUSH(x6)  # to</t>
+  </si>
+  <si>
+    <t>PUSH(x28)  # from</t>
+  </si>
+  <si>
+    <t>PUSH(x5)  # ref</t>
+  </si>
+  <si>
+    <t>PUSH(x5)  # C</t>
+  </si>
+  <si>
+    <t>POP(x8)</t>
+  </si>
+  <si>
+    <t>POP(x1)</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1057,6 +1078,63 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1066,63 +1144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1132,6 +1153,39 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1144,50 +1198,47 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D62D4B-76E8-45A2-B8A1-75B8DF836F09}">
   <dimension ref="C3:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1483,18 +1534,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="H3" s="13" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="H3" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="9" t="s">
@@ -1503,18 +1554,18 @@
       <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="26"/>
+      <c r="H4" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="16" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
@@ -1523,18 +1574,18 @@
       <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="20"/>
+      <c r="H5" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
@@ -1543,18 +1594,18 @@
       <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="20"/>
+      <c r="H6" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
@@ -1563,18 +1614,18 @@
       <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="20"/>
+      <c r="H7" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
@@ -1583,12 +1634,12 @@
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
@@ -1597,10 +1648,16 @@
       <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
@@ -1609,10 +1666,18 @@
       <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="16"/>
+      <c r="H10" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
@@ -1621,10 +1686,18 @@
       <c r="D11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
@@ -1633,11 +1706,16 @@
       <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="J12" s="1"/>
+      <c r="F12" s="20"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" s="59"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
@@ -1647,11 +1725,18 @@
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="J13" s="1"/>
+      <c r="F13" s="22"/>
+      <c r="H13" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
@@ -1660,11 +1745,16 @@
       <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="J14" s="1"/>
+      <c r="F14" s="11"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="K14" s="59"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.3">
@@ -1674,10 +1764,10 @@
       <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="11"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="L15" s="1"/>
@@ -1689,10 +1779,10 @@
       <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="11"/>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1"/>
@@ -1704,10 +1794,10 @@
       <c r="D17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="24"/>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="L17" s="1"/>
@@ -1719,10 +1809,10 @@
       <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="11"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
@@ -1734,10 +1824,10 @@
       <c r="D19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="24"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
@@ -1749,10 +1839,10 @@
       <c r="D20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="11"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
@@ -1764,10 +1854,10 @@
       <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="11"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
@@ -1779,10 +1869,10 @@
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="22"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
@@ -1794,10 +1884,10 @@
       <c r="D23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="22"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
@@ -1809,10 +1899,10 @@
       <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="22"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
@@ -1824,10 +1914,10 @@
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="22"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
@@ -1839,10 +1929,10 @@
       <c r="D26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="22"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
@@ -1854,10 +1944,10 @@
       <c r="D27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="22"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
@@ -1869,10 +1959,10 @@
       <c r="D28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="22"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
@@ -1884,10 +1974,10 @@
       <c r="D29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="22"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
       <c r="L29" s="1"/>
@@ -1899,10 +1989,10 @@
       <c r="D30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="22"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
       <c r="L30" s="1"/>
@@ -1914,10 +2004,10 @@
       <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="22"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
       <c r="L31" s="1"/>
@@ -1929,10 +2019,10 @@
       <c r="D32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="16"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="L32" s="1"/>
@@ -1944,10 +2034,10 @@
       <c r="D33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="19"/>
+      <c r="F33" s="16"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="L33" s="1"/>
@@ -1959,10 +2049,10 @@
       <c r="D34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="16"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="L34" s="1"/>
@@ -1974,10 +2064,10 @@
       <c r="D35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
@@ -2007,24 +2097,26 @@
       <c r="I40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
+  <mergeCells count="52">
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
@@ -2041,16 +2133,23 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:S118"/>
+  <dimension ref="B3:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="T107" sqref="T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2071,65 +2170,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="38"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="39">
+      <c r="B4" s="51">
         <v>88110</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="43"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="50"/>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
@@ -2393,82 +2492,82 @@
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="38"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="39">
+      <c r="B22" s="51">
         <v>88110</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="40" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="43"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="44" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="46"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="45"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="32" t="s">
@@ -2480,9 +2579,9 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="34"/>
-      <c r="I24" s="42"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="32" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
@@ -2501,7 +2600,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="34"/>
-      <c r="I25" s="42"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="32" t="s">
         <v>114</v>
       </c>
@@ -2522,7 +2621,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="42"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="32" t="s">
         <v>113</v>
       </c>
@@ -2543,7 +2642,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="42"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="32" t="s">
         <v>112</v>
       </c>
@@ -2564,7 +2663,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="42"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="32" t="s">
         <v>115</v>
       </c>
@@ -2585,7 +2684,7 @@
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="42"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="32" t="s">
         <v>116</v>
       </c>
@@ -2606,7 +2705,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="34"/>
-      <c r="I30" s="42"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="32" t="s">
         <v>100</v>
       </c>
@@ -2627,7 +2726,7 @@
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
-      <c r="I31" s="42"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="32" t="s">
         <v>117</v>
       </c>
@@ -2648,7 +2747,7 @@
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="34"/>
-      <c r="I32" s="42"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="32" t="s">
         <v>118</v>
       </c>
@@ -2669,7 +2768,7 @@
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="42"/>
+      <c r="I33" s="39"/>
       <c r="J33" s="32" t="s">
         <v>120</v>
       </c>
@@ -2690,7 +2789,7 @@
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
       <c r="H34" s="34"/>
-      <c r="I34" s="42"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="32" t="s">
         <v>119</v>
       </c>
@@ -2711,7 +2810,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="42"/>
+      <c r="I35" s="39"/>
       <c r="J35" s="32" t="s">
         <v>122</v>
       </c>
@@ -2732,7 +2831,7 @@
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="42"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="32" t="s">
         <v>123</v>
       </c>
@@ -2753,7 +2852,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="42"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="32" t="s">
         <v>110</v>
       </c>
@@ -2774,9 +2873,9 @@
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="42"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="32" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
@@ -2795,7 +2894,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="42"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="32" t="s">
         <v>121</v>
       </c>
@@ -2814,7 +2913,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
       <c r="H40" s="34"/>
-      <c r="I40" s="42"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="32"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
@@ -2831,7 +2930,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="34"/>
-      <c r="I41" s="42"/>
+      <c r="I41" s="39"/>
       <c r="J41" s="32"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
@@ -2848,7 +2947,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
       <c r="H42" s="34"/>
-      <c r="I42" s="42"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
@@ -2858,82 +2957,82 @@
       <c r="P42" s="34"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="49"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="37"/>
     </row>
     <row r="45" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="38"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="49"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="51">
+      <c r="B46" s="40">
         <v>88110</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="51" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="53"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="42"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="44" t="s">
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="46"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="45"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
@@ -2945,9 +3044,9 @@
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="34"/>
-      <c r="I48" s="42"/>
+      <c r="I48" s="39"/>
       <c r="J48" s="32" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
@@ -2966,7 +3065,7 @@
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
       <c r="H49" s="34"/>
-      <c r="I49" s="42"/>
+      <c r="I49" s="39"/>
       <c r="J49" s="32" t="s">
         <v>137</v>
       </c>
@@ -2987,7 +3086,7 @@
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="42"/>
+      <c r="I50" s="39"/>
       <c r="J50" s="32" t="s">
         <v>138</v>
       </c>
@@ -3008,7 +3107,7 @@
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
       <c r="H51" s="34"/>
-      <c r="I51" s="42"/>
+      <c r="I51" s="39"/>
       <c r="J51" s="32" t="s">
         <v>143</v>
       </c>
@@ -3029,7 +3128,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="42"/>
+      <c r="I52" s="39"/>
       <c r="J52" s="32" t="s">
         <v>144</v>
       </c>
@@ -3050,7 +3149,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="34"/>
-      <c r="I53" s="42"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="32" t="s">
         <v>145</v>
       </c>
@@ -3071,7 +3170,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="34"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="39"/>
       <c r="J54" s="32" t="s">
         <v>146</v>
       </c>
@@ -3092,7 +3191,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="34"/>
-      <c r="I55" s="42"/>
+      <c r="I55" s="39"/>
       <c r="J55" s="32" t="s">
         <v>147</v>
       </c>
@@ -3113,7 +3212,7 @@
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="34"/>
-      <c r="I56" s="42"/>
+      <c r="I56" s="39"/>
       <c r="J56" s="32" t="s">
         <v>148</v>
       </c>
@@ -3134,7 +3233,7 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="34"/>
-      <c r="I57" s="42"/>
+      <c r="I57" s="39"/>
       <c r="J57" s="32" t="s">
         <v>139</v>
       </c>
@@ -3155,7 +3254,7 @@
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="42"/>
+      <c r="I58" s="39"/>
       <c r="J58" s="32" t="s">
         <v>140</v>
       </c>
@@ -3176,7 +3275,7 @@
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
       <c r="H59" s="34"/>
-      <c r="I59" s="42"/>
+      <c r="I59" s="39"/>
       <c r="J59" s="32" t="s">
         <v>136</v>
       </c>
@@ -3197,7 +3296,7 @@
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
-      <c r="I60" s="42"/>
+      <c r="I60" s="39"/>
       <c r="J60" s="32" t="s">
         <v>141</v>
       </c>
@@ -3218,7 +3317,7 @@
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
-      <c r="I61" s="42"/>
+      <c r="I61" s="39"/>
       <c r="J61" s="32" t="s">
         <v>142</v>
       </c>
@@ -3237,7 +3336,7 @@
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
-      <c r="I62" s="42"/>
+      <c r="I62" s="39"/>
       <c r="J62" s="32"/>
       <c r="K62" s="33"/>
       <c r="L62" s="33"/>
@@ -3254,7 +3353,7 @@
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="34"/>
-      <c r="I63" s="42"/>
+      <c r="I63" s="39"/>
       <c r="J63" s="32"/>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
@@ -3271,7 +3370,7 @@
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
       <c r="H64" s="34"/>
-      <c r="I64" s="42"/>
+      <c r="I64" s="39"/>
       <c r="J64" s="32"/>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -3280,74 +3379,74 @@
       <c r="O64" s="33"/>
       <c r="P64" s="34"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="49"/>
-    </row>
-    <row r="67" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="35" t="s">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="35"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="37"/>
+    </row>
+    <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="B67" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="38"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B68" s="39">
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="49"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="51">
         <v>88110</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="40" t="s">
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="43"/>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B69" s="44" t="s">
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="53"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="42"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="39"/>
       <c r="J69" s="32" t="s">
         <v>150</v>
       </c>
@@ -3358,7 +3457,7 @@
       <c r="O69" s="33"/>
       <c r="P69" s="34"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="32" t="s">
         <v>157</v>
       </c>
@@ -3368,9 +3467,9 @@
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
       <c r="H70" s="34"/>
-      <c r="I70" s="42"/>
+      <c r="I70" s="39"/>
       <c r="J70" s="32" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="K70" s="33"/>
       <c r="L70" s="33"/>
@@ -3378,14 +3477,8 @@
       <c r="N70" s="33"/>
       <c r="O70" s="33"/>
       <c r="P70" s="34"/>
-      <c r="Q70" t="s">
-        <v>242</v>
-      </c>
-      <c r="S70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="32" t="s">
         <v>155</v>
       </c>
@@ -3395,9 +3488,9 @@
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
       <c r="H71" s="34"/>
-      <c r="I71" s="42"/>
+      <c r="I71" s="39"/>
       <c r="J71" s="32" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="K71" s="33"/>
       <c r="L71" s="33"/>
@@ -3405,11 +3498,8 @@
       <c r="N71" s="33"/>
       <c r="O71" s="33"/>
       <c r="P71" s="34"/>
-      <c r="Q71" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="32" t="s">
         <v>156</v>
       </c>
@@ -3419,9 +3509,9 @@
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
       <c r="H72" s="34"/>
-      <c r="I72" s="42"/>
+      <c r="I72" s="39"/>
       <c r="J72" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K72" s="33"/>
       <c r="L72" s="33"/>
@@ -3430,7 +3520,7 @@
       <c r="O72" s="33"/>
       <c r="P72" s="34"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="32" t="s">
         <v>187</v>
       </c>
@@ -3440,9 +3530,9 @@
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
       <c r="H73" s="34"/>
-      <c r="I73" s="42"/>
+      <c r="I73" s="39"/>
       <c r="J73" s="32" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K73" s="33"/>
       <c r="L73" s="33"/>
@@ -3451,7 +3541,7 @@
       <c r="O73" s="33"/>
       <c r="P73" s="34"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="32" t="s">
         <v>158</v>
       </c>
@@ -3461,9 +3551,9 @@
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
       <c r="H74" s="34"/>
-      <c r="I74" s="42"/>
+      <c r="I74" s="39"/>
       <c r="J74" s="32" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K74" s="33"/>
       <c r="L74" s="33"/>
@@ -3472,7 +3562,7 @@
       <c r="O74" s="33"/>
       <c r="P74" s="34"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="32" t="s">
         <v>159</v>
       </c>
@@ -3482,9 +3572,9 @@
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
       <c r="H75" s="34"/>
-      <c r="I75" s="42"/>
+      <c r="I75" s="39"/>
       <c r="J75" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K75" s="33"/>
       <c r="L75" s="33"/>
@@ -3493,7 +3583,7 @@
       <c r="O75" s="33"/>
       <c r="P75" s="34"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="32" t="s">
         <v>188</v>
       </c>
@@ -3503,9 +3593,9 @@
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
       <c r="H76" s="34"/>
-      <c r="I76" s="42"/>
+      <c r="I76" s="39"/>
       <c r="J76" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K76" s="33"/>
       <c r="L76" s="33"/>
@@ -3514,7 +3604,7 @@
       <c r="O76" s="33"/>
       <c r="P76" s="34"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="32" t="s">
         <v>160</v>
       </c>
@@ -3524,9 +3614,9 @@
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
       <c r="H77" s="34"/>
-      <c r="I77" s="42"/>
+      <c r="I77" s="39"/>
       <c r="J77" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K77" s="33"/>
       <c r="L77" s="33"/>
@@ -3535,7 +3625,7 @@
       <c r="O77" s="33"/>
       <c r="P77" s="34"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="32" t="s">
         <v>177</v>
       </c>
@@ -3545,9 +3635,9 @@
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" s="34"/>
-      <c r="I78" s="42"/>
+      <c r="I78" s="39"/>
       <c r="J78" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K78" s="33"/>
       <c r="L78" s="33"/>
@@ -3556,7 +3646,7 @@
       <c r="O78" s="33"/>
       <c r="P78" s="34"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="32" t="s">
         <v>161</v>
       </c>
@@ -3566,7 +3656,7 @@
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" s="34"/>
-      <c r="I79" s="42"/>
+      <c r="I79" s="39"/>
       <c r="J79" s="32" t="s">
         <v>161</v>
       </c>
@@ -3577,7 +3667,7 @@
       <c r="O79" s="33"/>
       <c r="P79" s="34"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="32" t="s">
         <v>167</v>
       </c>
@@ -3587,9 +3677,9 @@
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
       <c r="H80" s="34"/>
-      <c r="I80" s="42"/>
+      <c r="I80" s="39"/>
       <c r="J80" s="32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K80" s="33"/>
       <c r="L80" s="33"/>
@@ -3608,9 +3698,9 @@
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
       <c r="H81" s="34"/>
-      <c r="I81" s="42"/>
+      <c r="I81" s="39"/>
       <c r="J81" s="32" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K81" s="33"/>
       <c r="L81" s="33"/>
@@ -3629,9 +3719,9 @@
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
       <c r="H82" s="34"/>
-      <c r="I82" s="42"/>
+      <c r="I82" s="39"/>
       <c r="J82" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K82" s="33"/>
       <c r="L82" s="33"/>
@@ -3650,9 +3740,9 @@
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="34"/>
-      <c r="I83" s="42"/>
+      <c r="I83" s="39"/>
       <c r="J83" s="32" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="K83" s="33"/>
       <c r="L83" s="33"/>
@@ -3671,9 +3761,9 @@
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
       <c r="H84" s="34"/>
-      <c r="I84" s="42"/>
+      <c r="I84" s="39"/>
       <c r="J84" s="32" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K84" s="33"/>
       <c r="L84" s="33"/>
@@ -3692,9 +3782,9 @@
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
       <c r="H85" s="34"/>
-      <c r="I85" s="42"/>
+      <c r="I85" s="39"/>
       <c r="J85" s="32" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="K85" s="33"/>
       <c r="L85" s="33"/>
@@ -3713,9 +3803,9 @@
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
       <c r="H86" s="34"/>
-      <c r="I86" s="42"/>
+      <c r="I86" s="39"/>
       <c r="J86" s="32" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K86" s="33"/>
       <c r="L86" s="33"/>
@@ -3734,9 +3824,9 @@
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="34"/>
-      <c r="I87" s="42"/>
+      <c r="I87" s="39"/>
       <c r="J87" s="32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K87" s="33"/>
       <c r="L87" s="33"/>
@@ -3755,9 +3845,9 @@
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
       <c r="H88" s="34"/>
-      <c r="I88" s="42"/>
+      <c r="I88" s="39"/>
       <c r="J88" s="32" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="K88" s="33"/>
       <c r="L88" s="33"/>
@@ -3776,9 +3866,9 @@
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
       <c r="H89" s="34"/>
-      <c r="I89" s="42"/>
+      <c r="I89" s="39"/>
       <c r="J89" s="32" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K89" s="33"/>
       <c r="L89" s="33"/>
@@ -3798,7 +3888,7 @@
       <c r="G90" s="33"/>
       <c r="H90" s="34"/>
       <c r="J90" s="32" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K90" s="33"/>
       <c r="L90" s="33"/>
@@ -3818,7 +3908,7 @@
       <c r="G91" s="33"/>
       <c r="H91" s="34"/>
       <c r="J91" s="32" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K91" s="33"/>
       <c r="L91" s="33"/>
@@ -3838,7 +3928,7 @@
       <c r="G92" s="33"/>
       <c r="H92" s="34"/>
       <c r="J92" s="32" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K92" s="33"/>
       <c r="L92" s="33"/>
@@ -3858,7 +3948,7 @@
       <c r="G93" s="33"/>
       <c r="H93" s="34"/>
       <c r="J93" s="32" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K93" s="33"/>
       <c r="L93" s="33"/>
@@ -3878,7 +3968,7 @@
       <c r="G94" s="33"/>
       <c r="H94" s="34"/>
       <c r="J94" s="32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K94" s="33"/>
       <c r="L94" s="33"/>
@@ -3898,7 +3988,7 @@
       <c r="G95" s="33"/>
       <c r="H95" s="34"/>
       <c r="J95" s="32" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K95" s="33"/>
       <c r="L95" s="33"/>
@@ -3918,7 +4008,7 @@
       <c r="G96" s="33"/>
       <c r="H96" s="34"/>
       <c r="J96" s="32" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K96" s="33"/>
       <c r="L96" s="33"/>
@@ -3938,7 +4028,7 @@
       <c r="G97" s="33"/>
       <c r="H97" s="34"/>
       <c r="J97" s="32" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K97" s="33"/>
       <c r="L97" s="33"/>
@@ -3958,7 +4048,7 @@
       <c r="G98" s="33"/>
       <c r="H98" s="34"/>
       <c r="J98" s="32" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K98" s="33"/>
       <c r="L98" s="33"/>
@@ -3978,7 +4068,7 @@
       <c r="G99" s="33"/>
       <c r="H99" s="34"/>
       <c r="J99" s="32" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K99" s="33"/>
       <c r="L99" s="33"/>
@@ -3998,7 +4088,7 @@
       <c r="G100" s="33"/>
       <c r="H100" s="34"/>
       <c r="J100" s="32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K100" s="33"/>
       <c r="L100" s="33"/>
@@ -4018,7 +4108,7 @@
       <c r="G101" s="33"/>
       <c r="H101" s="34"/>
       <c r="J101" s="32" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K101" s="33"/>
       <c r="L101" s="33"/>
@@ -4038,7 +4128,7 @@
       <c r="G102" s="33"/>
       <c r="H102" s="34"/>
       <c r="J102" s="32" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K102" s="33"/>
       <c r="L102" s="33"/>
@@ -4058,7 +4148,7 @@
       <c r="G103" s="33"/>
       <c r="H103" s="34"/>
       <c r="J103" s="32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K103" s="33"/>
       <c r="L103" s="33"/>
@@ -4078,7 +4168,7 @@
       <c r="G104" s="33"/>
       <c r="H104" s="34"/>
       <c r="J104" s="32" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K104" s="33"/>
       <c r="L104" s="33"/>
@@ -4098,7 +4188,7 @@
       <c r="G105" s="33"/>
       <c r="H105" s="34"/>
       <c r="J105" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K105" s="33"/>
       <c r="L105" s="33"/>
@@ -4118,7 +4208,7 @@
       <c r="G106" s="33"/>
       <c r="H106" s="34"/>
       <c r="J106" s="32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K106" s="33"/>
       <c r="L106" s="33"/>
@@ -4158,7 +4248,7 @@
       <c r="G108" s="33"/>
       <c r="H108" s="34"/>
       <c r="J108" s="32" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K108" s="33"/>
       <c r="L108" s="33"/>
@@ -4178,7 +4268,7 @@
       <c r="G109" s="33"/>
       <c r="H109" s="34"/>
       <c r="J109" s="32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K109" s="33"/>
       <c r="L109" s="33"/>
@@ -4198,7 +4288,7 @@
       <c r="G110" s="33"/>
       <c r="H110" s="34"/>
       <c r="J110" s="32" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="K110" s="33"/>
       <c r="L110" s="33"/>
@@ -4218,7 +4308,7 @@
       <c r="G111" s="33"/>
       <c r="H111" s="34"/>
       <c r="J111" s="32" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="K111" s="33"/>
       <c r="L111" s="33"/>
@@ -4332,46 +4422,202 @@
       <c r="P117" s="34"/>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B118" s="47"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="49"/>
-      <c r="J118" s="47"/>
-      <c r="K118" s="48"/>
-      <c r="L118" s="48"/>
-      <c r="M118" s="48"/>
-      <c r="N118" s="48"/>
-      <c r="O118" s="48"/>
-      <c r="P118" s="49"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="37"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="226">
-    <mergeCell ref="J117:P117"/>
-    <mergeCell ref="J118:P118"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="J109:P109"/>
-    <mergeCell ref="J110:P110"/>
-    <mergeCell ref="J111:P111"/>
-    <mergeCell ref="J112:P112"/>
-    <mergeCell ref="J113:P113"/>
-    <mergeCell ref="J114:P114"/>
-    <mergeCell ref="J115:P115"/>
-    <mergeCell ref="J116:P116"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="J99:P99"/>
-    <mergeCell ref="J100:P100"/>
-    <mergeCell ref="J101:P101"/>
-    <mergeCell ref="J102:P102"/>
-    <mergeCell ref="J103:P103"/>
-    <mergeCell ref="J104:P104"/>
-    <mergeCell ref="J105:P105"/>
-    <mergeCell ref="J106:P106"/>
-    <mergeCell ref="J107:P107"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J90:P90"/>
+    <mergeCell ref="J91:P91"/>
+    <mergeCell ref="J92:P92"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="J94:P94"/>
+    <mergeCell ref="J95:P95"/>
+    <mergeCell ref="J96:P96"/>
+    <mergeCell ref="J97:P97"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="J87:P87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="J88:P88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="J89:P89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="J83:P83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="J84:P84"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="J85:P85"/>
+    <mergeCell ref="J86:P86"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="J77:P77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="J78:P78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="J79:P79"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="J80:P80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="J81:P81"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="J41:P41"/>
+    <mergeCell ref="J42:P42"/>
+    <mergeCell ref="B67:P67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="I68:I89"/>
+    <mergeCell ref="J68:P68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="J69:P69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="J70:P70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="J73:P73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="J74:P74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="J75:P75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:P76"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:P35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="J36:P36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="I22:I43"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="J38:P38"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B45:P45"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I4:I19"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="J55:P55"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="J46:P46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B53:H53"/>
     <mergeCell ref="J98:P98"/>
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="J65:P65"/>
@@ -4396,185 +4642,29 @@
     <mergeCell ref="J58:P58"/>
     <mergeCell ref="J53:P53"/>
     <mergeCell ref="B54:H54"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="J55:P55"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="J46:P46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="J50:P50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B45:P45"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I4:I19"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:P35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="J36:P36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="I22:I43"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="J34:P34"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="J43:P43"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="J38:P38"/>
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="J40:P40"/>
-    <mergeCell ref="J41:P41"/>
-    <mergeCell ref="J42:P42"/>
-    <mergeCell ref="B67:P67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="I68:I89"/>
-    <mergeCell ref="J68:P68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="J69:P69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="J70:P70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="J73:P73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="J74:P74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="J75:P75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:P76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:P77"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="J78:P78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="J79:P79"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="J80:P80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="J81:P81"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="J87:P87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="J88:P88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="J89:P89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="J82:P82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="J83:P83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="J84:P84"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="J85:P85"/>
-    <mergeCell ref="J86:P86"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J90:P90"/>
-    <mergeCell ref="J91:P91"/>
-    <mergeCell ref="J92:P92"/>
-    <mergeCell ref="J93:P93"/>
-    <mergeCell ref="J94:P94"/>
-    <mergeCell ref="J95:P95"/>
-    <mergeCell ref="J96:P96"/>
-    <mergeCell ref="J97:P97"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B94:H94"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="J99:P99"/>
+    <mergeCell ref="J100:P100"/>
+    <mergeCell ref="J101:P101"/>
+    <mergeCell ref="J102:P102"/>
+    <mergeCell ref="J103:P103"/>
+    <mergeCell ref="J104:P104"/>
+    <mergeCell ref="J105:P105"/>
+    <mergeCell ref="J106:P106"/>
+    <mergeCell ref="J107:P107"/>
+    <mergeCell ref="J117:P117"/>
+    <mergeCell ref="J118:P118"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="J109:P109"/>
+    <mergeCell ref="J110:P110"/>
+    <mergeCell ref="J111:P111"/>
+    <mergeCell ref="J112:P112"/>
+    <mergeCell ref="J113:P113"/>
+    <mergeCell ref="J114:P114"/>
+    <mergeCell ref="J115:P115"/>
+    <mergeCell ref="J116:P116"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B117:H117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/riscv-ens.xlsx
+++ b/riscv-ens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC2ADE-D1C4-4515-8C4A-3E51A0A115CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A3076-A1F2-4010-8961-8C0A6AD26FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensamblador RISCV" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="253">
   <si>
     <t>x0</t>
   </si>
@@ -790,6 +790,12 @@
   </si>
   <si>
     <t>POP(x1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ret </t>
+  </si>
+  <si>
+    <t>jalr zero, 0(ra)</t>
   </si>
 </sst>
 </file>
@@ -1078,25 +1084,91 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,45 +1177,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1153,6 +1186,42 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1162,10 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,68 +1243,8 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D62D4B-76E8-45A2-B8A1-75B8DF836F09}">
-  <dimension ref="C3:L40"/>
+  <dimension ref="C3:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,256 +1539,265 @@
     <col min="4" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="H3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="U3" t="s">
+        <v>251</v>
+      </c>
+      <c r="V3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="30"/>
+      <c r="H4" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="27" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="22"/>
+      <c r="V4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="H5" s="29" t="s">
+      <c r="F5" s="32"/>
+      <c r="H5" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="29" t="s">
+      <c r="F6" s="32"/>
+      <c r="H6" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="H7" s="29" t="s">
+      <c r="F7" s="32"/>
+      <c r="H7" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="32"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="28"/>
+      <c r="H9" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="H10" s="27" t="s">
+      <c r="F10" s="28"/>
+      <c r="H10" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="54" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="55"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="H11" s="60" t="s">
+      <c r="F11" s="40"/>
+      <c r="H11" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="56" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="57"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="58" t="s">
+      <c r="F12" s="32"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="59"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="H13" s="60" t="s">
+      <c r="F13" s="34"/>
+      <c r="H13" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="56" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="K13" s="57"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="58" t="s">
+      <c r="F14" s="36"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="K14" s="59"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="36"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="36"/>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1"/>
@@ -1794,10 +1809,10 @@
       <c r="D17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="38"/>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="L17" s="1"/>
@@ -1809,10 +1824,10 @@
       <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="36"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
@@ -1824,10 +1839,10 @@
       <c r="D19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="38"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
@@ -1839,10 +1854,10 @@
       <c r="D20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="36"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
@@ -1854,10 +1869,10 @@
       <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="36"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
@@ -1869,10 +1884,10 @@
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="34"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
@@ -1884,10 +1899,10 @@
       <c r="D23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="34"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
@@ -1899,10 +1914,10 @@
       <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="34"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
@@ -1914,10 +1929,10 @@
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="34"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
@@ -1929,10 +1944,10 @@
       <c r="D26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="34"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
@@ -1944,10 +1959,10 @@
       <c r="D27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="34"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
@@ -1959,10 +1974,10 @@
       <c r="D28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="34"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
@@ -1974,10 +1989,10 @@
       <c r="D29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="34"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
       <c r="L29" s="1"/>
@@ -1989,10 +2004,10 @@
       <c r="D30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="34"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
       <c r="L30" s="1"/>
@@ -2004,10 +2019,10 @@
       <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="34"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
       <c r="L31" s="1"/>
@@ -2019,10 +2034,10 @@
       <c r="D32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="16"/>
+      <c r="F32" s="28"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="L32" s="1"/>
@@ -2034,10 +2049,10 @@
       <c r="D33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="28"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="L33" s="1"/>
@@ -2049,10 +2064,10 @@
       <c r="D34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="28"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="L34" s="1"/>
@@ -2064,10 +2079,10 @@
       <c r="D35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="28"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
@@ -2098,25 +2113,23 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
@@ -2133,23 +2146,25 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H13:I14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2160,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T107" sqref="T107"/>
     </sheetView>
   </sheetViews>
@@ -2170,2335 +2185,2417 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="49"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="51">
+      <c r="B4" s="48">
         <v>88110</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="52" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="43" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="32" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="32" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="32" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="32" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="32" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="32" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="32" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="43"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="32" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="43"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="32" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="32" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="43"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="43"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="37"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
     </row>
     <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="49"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="47"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="51">
+      <c r="B22" s="48">
         <v>88110</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="52" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="43" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="45"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="32" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="32" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="32" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="34"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="43"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="32" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="34"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="32" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="34"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="32" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="34"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="43"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="32" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="34"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="43"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="32" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="34"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="43"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="32" t="s">
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="34"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="32" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="34"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="32" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="34"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="32" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="34"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="32" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="34"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="32" t="s">
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="34"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="32" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="34"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="32" t="s">
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="34"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="34"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="34"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="37"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58"/>
     </row>
     <row r="45" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="49"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="47"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="40">
+      <c r="B46" s="60">
         <v>88110</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="40" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="42"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="62"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="43" t="s">
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="45"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="55"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="32" t="s">
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="34"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="32" t="s">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="34"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="43"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="32" t="s">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="34"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="43"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="32" t="s">
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="34"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="32" t="s">
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="34"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="32" t="s">
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="34"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="43"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="32" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="34"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="43"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="32" t="s">
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="34"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="43"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="32" t="s">
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="34"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="43"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="32" t="s">
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="34"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="32" t="s">
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="34"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="43"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="32" t="s">
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="34"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="43"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="32" t="s">
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="34"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="43"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="32" t="s">
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="34"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="43"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="34"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="43"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="34"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="43"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="34"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="43"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="37"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="58"/>
     </row>
     <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="49"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="47"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="51">
+      <c r="B68" s="48">
         <v>88110</v>
       </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="52" t="s">
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="53"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="52"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="32" t="s">
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="34"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="43"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="32" t="s">
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="34"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="43"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="32" t="s">
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="34"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="43"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="32" t="s">
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="34"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="43"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="32" t="s">
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="34"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="43"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="32" t="s">
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="34"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="43"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="32" t="s">
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="34"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="43"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="32" t="s">
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="34"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="43"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="32" t="s">
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="34"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="43"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="32" t="s">
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="34"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="43"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="32" t="s">
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="34"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="43"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="32" t="s">
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="34"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="43"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="32" t="s">
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="34"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="43"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="32" t="s">
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="34"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="43"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="32" t="s">
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="34"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="43"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="32" t="s">
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="34"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="43"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="32" t="s">
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="34"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="43"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="32" t="s">
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="34"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="43"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="32" t="s">
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="34"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="43"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="32" t="s">
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="34"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="43"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="32" t="s">
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="34"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="43"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="34"/>
-      <c r="J90" s="32" t="s">
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="43"/>
+      <c r="J90" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="34"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="43"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="34"/>
-      <c r="J91" s="32" t="s">
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="43"/>
+      <c r="J91" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="33"/>
-      <c r="P91" s="34"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="43"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="34"/>
-      <c r="J92" s="32" t="s">
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="43"/>
+      <c r="J92" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="34"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="43"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="34"/>
-      <c r="J93" s="32" t="s">
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="43"/>
+      <c r="J93" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="K93" s="33"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="33"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="33"/>
-      <c r="P93" s="34"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="43"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="34"/>
-      <c r="J94" s="32" t="s">
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="43"/>
+      <c r="J94" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="34"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="43"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="34"/>
-      <c r="J95" s="32" t="s">
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="43"/>
+      <c r="J95" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="33"/>
-      <c r="N95" s="33"/>
-      <c r="O95" s="33"/>
-      <c r="P95" s="34"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="43"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="34"/>
-      <c r="J96" s="32" t="s">
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="43"/>
+      <c r="J96" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33"/>
-      <c r="O96" s="33"/>
-      <c r="P96" s="34"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="43"/>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="34"/>
-      <c r="J97" s="32" t="s">
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="43"/>
+      <c r="J97" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="K97" s="33"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="33"/>
-      <c r="N97" s="33"/>
-      <c r="O97" s="33"/>
-      <c r="P97" s="34"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="43"/>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="34"/>
-      <c r="J98" s="32" t="s">
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="43"/>
+      <c r="J98" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="K98" s="33"/>
-      <c r="L98" s="33"/>
-      <c r="M98" s="33"/>
-      <c r="N98" s="33"/>
-      <c r="O98" s="33"/>
-      <c r="P98" s="34"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="43"/>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B99" s="32" t="s">
+      <c r="B99" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="34"/>
-      <c r="J99" s="32" t="s">
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="43"/>
+      <c r="J99" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="33"/>
-      <c r="N99" s="33"/>
-      <c r="O99" s="33"/>
-      <c r="P99" s="34"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="43"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="34"/>
-      <c r="J100" s="32" t="s">
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="43"/>
+      <c r="J100" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33"/>
-      <c r="O100" s="33"/>
-      <c r="P100" s="34"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="43"/>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="34"/>
-      <c r="J101" s="32" t="s">
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="43"/>
+      <c r="J101" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="K101" s="33"/>
-      <c r="L101" s="33"/>
-      <c r="M101" s="33"/>
-      <c r="N101" s="33"/>
-      <c r="O101" s="33"/>
-      <c r="P101" s="34"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="42"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="43"/>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="34"/>
-      <c r="J102" s="32" t="s">
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="43"/>
+      <c r="J102" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="K102" s="33"/>
-      <c r="L102" s="33"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="33"/>
-      <c r="O102" s="33"/>
-      <c r="P102" s="34"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="43"/>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="34"/>
-      <c r="J103" s="32" t="s">
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="43"/>
+      <c r="J103" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="33"/>
-      <c r="O103" s="33"/>
-      <c r="P103" s="34"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="43"/>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="34"/>
-      <c r="J104" s="32" t="s">
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="43"/>
+      <c r="J104" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="K104" s="33"/>
-      <c r="L104" s="33"/>
-      <c r="M104" s="33"/>
-      <c r="N104" s="33"/>
-      <c r="O104" s="33"/>
-      <c r="P104" s="34"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="43"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="34"/>
-      <c r="J105" s="32" t="s">
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="43"/>
+      <c r="J105" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33"/>
-      <c r="O105" s="33"/>
-      <c r="P105" s="34"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="43"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="34"/>
-      <c r="J106" s="32" t="s">
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="43"/>
+      <c r="J106" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="K106" s="33"/>
-      <c r="L106" s="33"/>
-      <c r="M106" s="33"/>
-      <c r="N106" s="33"/>
-      <c r="O106" s="33"/>
-      <c r="P106" s="34"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="43"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="34"/>
-      <c r="J107" s="32" t="s">
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="43"/>
+      <c r="J107" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K107" s="33"/>
-      <c r="L107" s="33"/>
-      <c r="M107" s="33"/>
-      <c r="N107" s="33"/>
-      <c r="O107" s="33"/>
-      <c r="P107" s="34"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="43"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="34"/>
-      <c r="J108" s="32" t="s">
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="43"/>
+      <c r="J108" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33"/>
-      <c r="O108" s="33"/>
-      <c r="P108" s="34"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="43"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="34"/>
-      <c r="J109" s="32" t="s">
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="43"/>
+      <c r="J109" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="33"/>
-      <c r="N109" s="33"/>
-      <c r="O109" s="33"/>
-      <c r="P109" s="34"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="43"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="34"/>
-      <c r="J110" s="32" t="s">
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="43"/>
+      <c r="J110" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="K110" s="33"/>
-      <c r="L110" s="33"/>
-      <c r="M110" s="33"/>
-      <c r="N110" s="33"/>
-      <c r="O110" s="33"/>
-      <c r="P110" s="34"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="43"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="34"/>
-      <c r="J111" s="32" t="s">
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="43"/>
+      <c r="J111" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="K111" s="33"/>
-      <c r="L111" s="33"/>
-      <c r="M111" s="33"/>
-      <c r="N111" s="33"/>
-      <c r="O111" s="33"/>
-      <c r="P111" s="34"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="43"/>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="34"/>
-      <c r="J112" s="32" t="s">
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="43"/>
+      <c r="J112" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="K112" s="33"/>
-      <c r="L112" s="33"/>
-      <c r="M112" s="33"/>
-      <c r="N112" s="33"/>
-      <c r="O112" s="33"/>
-      <c r="P112" s="34"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="42"/>
+      <c r="P112" s="43"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="34"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
-      <c r="M113" s="33"/>
-      <c r="N113" s="33"/>
-      <c r="O113" s="33"/>
-      <c r="P113" s="34"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="43"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="42"/>
+      <c r="O113" s="42"/>
+      <c r="P113" s="43"/>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="34"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="33"/>
-      <c r="L114" s="33"/>
-      <c r="M114" s="33"/>
-      <c r="N114" s="33"/>
-      <c r="O114" s="33"/>
-      <c r="P114" s="34"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="43"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
+      <c r="O114" s="42"/>
+      <c r="P114" s="43"/>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="34"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="33"/>
-      <c r="L115" s="33"/>
-      <c r="M115" s="33"/>
-      <c r="N115" s="33"/>
-      <c r="O115" s="33"/>
-      <c r="P115" s="34"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="43"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+      <c r="P115" s="43"/>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B116" s="32"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="34"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="33"/>
-      <c r="N116" s="33"/>
-      <c r="O116" s="33"/>
-      <c r="P116" s="34"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="43"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="42"/>
+      <c r="P116" s="43"/>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B117" s="32"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="34"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="33"/>
-      <c r="L117" s="33"/>
-      <c r="M117" s="33"/>
-      <c r="N117" s="33"/>
-      <c r="O117" s="33"/>
-      <c r="P117" s="34"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="43"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="42"/>
+      <c r="P117" s="43"/>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B118" s="35"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="37"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="37"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="58"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="57"/>
+      <c r="L118" s="57"/>
+      <c r="M118" s="57"/>
+      <c r="N118" s="57"/>
+      <c r="O118" s="57"/>
+      <c r="P118" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="226">
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J90:P90"/>
-    <mergeCell ref="J91:P91"/>
-    <mergeCell ref="J92:P92"/>
-    <mergeCell ref="J93:P93"/>
-    <mergeCell ref="J94:P94"/>
-    <mergeCell ref="J95:P95"/>
-    <mergeCell ref="J96:P96"/>
-    <mergeCell ref="J97:P97"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B94:H94"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="J87:P87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="J88:P88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="J89:P89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="J82:P82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="J83:P83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="J84:P84"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="J85:P85"/>
-    <mergeCell ref="J86:P86"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:P77"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="J78:P78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="J79:P79"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="J80:P80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="J81:P81"/>
+    <mergeCell ref="J117:P117"/>
+    <mergeCell ref="J118:P118"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="J109:P109"/>
+    <mergeCell ref="J110:P110"/>
+    <mergeCell ref="J111:P111"/>
+    <mergeCell ref="J112:P112"/>
+    <mergeCell ref="J113:P113"/>
+    <mergeCell ref="J114:P114"/>
+    <mergeCell ref="J115:P115"/>
+    <mergeCell ref="J116:P116"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="J99:P99"/>
+    <mergeCell ref="J100:P100"/>
+    <mergeCell ref="J101:P101"/>
+    <mergeCell ref="J102:P102"/>
+    <mergeCell ref="J103:P103"/>
+    <mergeCell ref="J104:P104"/>
+    <mergeCell ref="J105:P105"/>
+    <mergeCell ref="J106:P106"/>
+    <mergeCell ref="J107:P107"/>
+    <mergeCell ref="J98:P98"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="J65:P65"/>
+    <mergeCell ref="I46:I65"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="J62:P62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:P63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="J59:P59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="J60:P60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="J61:P61"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="J53:P53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="J55:P55"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="J46:P46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B45:P45"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I4:I19"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:P35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="J36:P36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="I22:I43"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="J38:P38"/>
     <mergeCell ref="J39:P39"/>
     <mergeCell ref="J40:P40"/>
     <mergeCell ref="J41:P41"/>
@@ -4523,148 +4620,66 @@
     <mergeCell ref="J75:P75"/>
     <mergeCell ref="B76:H76"/>
     <mergeCell ref="J76:P76"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:P35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="J36:P36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="I22:I43"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="J34:P34"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="J43:P43"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="J38:P38"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B45:P45"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I4:I19"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="J55:P55"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="J46:P46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="J50:P50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="J98:P98"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="J65:P65"/>
-    <mergeCell ref="I46:I65"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="J62:P62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:P63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="J64:P64"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="J59:P59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="J60:P60"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="J61:P61"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="J53:P53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="J99:P99"/>
-    <mergeCell ref="J100:P100"/>
-    <mergeCell ref="J101:P101"/>
-    <mergeCell ref="J102:P102"/>
-    <mergeCell ref="J103:P103"/>
-    <mergeCell ref="J104:P104"/>
-    <mergeCell ref="J105:P105"/>
-    <mergeCell ref="J106:P106"/>
-    <mergeCell ref="J107:P107"/>
-    <mergeCell ref="J117:P117"/>
-    <mergeCell ref="J118:P118"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="J109:P109"/>
-    <mergeCell ref="J110:P110"/>
-    <mergeCell ref="J111:P111"/>
-    <mergeCell ref="J112:P112"/>
-    <mergeCell ref="J113:P113"/>
-    <mergeCell ref="J114:P114"/>
-    <mergeCell ref="J115:P115"/>
-    <mergeCell ref="J116:P116"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="J77:P77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="J78:P78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="J79:P79"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="J80:P80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="J81:P81"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="J87:P87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="J88:P88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="J89:P89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="J83:P83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="J84:P84"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="J85:P85"/>
+    <mergeCell ref="J86:P86"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B96:H96"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J90:P90"/>
+    <mergeCell ref="J91:P91"/>
+    <mergeCell ref="J92:P92"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="J94:P94"/>
+    <mergeCell ref="J95:P95"/>
+    <mergeCell ref="J96:P96"/>
+    <mergeCell ref="J97:P97"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B106:H106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
